--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\UiPath\_원오원내부\PTRFramework_v2.0\PTRFramework_Cycle_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysj08\Documents\UiPath\RPA_Test_프레임워크\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B367AB85-2C15-4032-82A6-0B8E9872868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E8919F-639C-44C7-9116-669007142CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asset" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{7333865C-EA93-4D4D-9417-0877E7F0C07C}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,7 +440,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -739,7 +739,7 @@
   <dimension ref="A1:AA990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
